--- a/Configuration-Template.xlsx
+++ b/Configuration-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://interpublic-my.sharepoint.com/personal/hitesh_modi_kinesso_com/Documents/Desktop/Ingestion Project/project for git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://interpublic-my.sharepoint.com/personal/hitesh_modi_kinesso_com/Documents/Desktop/Ingestion Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC1048CC391D7F825BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C88EB8D0-700D-471E-80DE-D1821EF50B1F}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC1048CC391D7F825BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E5C55D-1C92-4002-9F3B-87F2FE59391F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+  <si>
+    <t>DCM_DIM_FACT_TEST</t>
+  </si>
   <si>
     <t>No</t>
   </si>
@@ -51,6 +54,9 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Placement ID</t>
+  </si>
+  <si>
     <t>DATABASE</t>
   </si>
   <si>
@@ -66,22 +72,25 @@
     <t>ACCOUNT</t>
   </si>
   <si>
-    <t>TEST_SCHEMA_ONE</t>
-  </si>
-  <si>
-    <t>HITESH_MODI</t>
-  </si>
-  <si>
-    <t>TEST_PROJECT</t>
-  </si>
-  <si>
-    <t>TEST_SCHEMA</t>
-  </si>
-  <si>
-    <t>dv90421.uae-north.azure.snowflakecomputing.com</t>
-  </si>
-  <si>
-    <t>work_year, experience_level, employment_type, job_title</t>
+    <t>GR_KINESSO</t>
+  </si>
+  <si>
+    <t>UM_AMEX_US</t>
+  </si>
+  <si>
+    <t>kinesso.us-east-1</t>
+  </si>
+  <si>
+    <t>SA360_GOPRO</t>
+  </si>
+  <si>
+    <t>UM_GOPRO_US</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Account, From, Campaign</t>
   </si>
 </sst>
 </file>
@@ -134,10 +143,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,57 +422,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -476,7 +481,39 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
